--- a/matrix/reviewed/windows/login_reviewed/login_button_reviewed.xlsx
+++ b/matrix/reviewed/windows/login_reviewed/login_button_reviewed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A55C5-87FA-493E-9A02-84FECA1C1F6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C494165C-0662-4D2F-9D9F-25AE3C90E6AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -268,15 +268,115 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1970,6 +2070,1556 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33864D96-243D-41ED-94A0-ECA05CF08950}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30255523-EF0B-4CF7-957C-A6831B22899C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D211C8D-246D-44E8-AEE6-2CE316327F6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBE55BC-F251-42E1-B0BF-4630F4A788DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F519E6-83E8-4A34-858E-45627EE904E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC703655-D521-459A-B097-42CEE6EF0B98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC63315-FD8D-4C2E-A684-0A21BB27943D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25D2236-E806-48CF-8B85-2BDE9F7E06EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F9C3C5-8BE0-4F38-94D5-B45EB83D9CE2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6045AA5B-B45F-4C02-B2DF-7729D4013B24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFA7A36-7820-42AB-A876-70D0E87F24C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C456FDED-9165-49B3-BAEA-E2E0E240BB30}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED43D5F5-2191-4741-BCEE-951C7528245D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7760AE-EB77-42A0-BF50-403ADA819BCB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3C4F5B-F59C-47FE-B603-7908C28D627B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A170360C-A499-4044-8BC3-2640DA5131EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03C4A5E-3F20-412E-BCB8-FFAF800B2B41}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DA6A6A-BF22-4992-8422-DD30C1479218}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71F976B-05B9-4AB7-8134-4669C1C9D025}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9EF4C1-32B4-41C1-BD96-E05F5F38A72D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A652FAB2-3779-4565-A5D0-4E0B210C5974}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BC0CEE-3A3A-4DCE-8ECF-32B8263FA828}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242E7F9F-E524-4F2B-8BF0-618DC0D9B3EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C69040-9747-4355-84E5-6899857DCF21}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0BBFC3-71F8-4A1E-A6B1-BB1830F0AFF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2239,10 +3889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O4"/>
+  <dimension ref="B1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,6 +4007,118 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2915,6 +4677,556 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId39" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId40" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId41" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId42" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId43" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId44" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId45" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId46" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId47" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId48" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId49" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId50" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId51" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId52" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
